--- a/MLForCatheterDetection/Presentation/LV Catheter 07.xlsx
+++ b/MLForCatheterDetection/Presentation/LV Catheter 07.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>LV Catheter 07</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Cath min slice</t>
   </si>
@@ -45,7 +42,19 @@
     <t>Offset</t>
   </si>
   <si>
-    <t>P</t>
+    <t>LV Catheter 07 (short-axis, 208 slices)</t>
+  </si>
+  <si>
+    <t>LV Catheter 07 (long-axis 1, 176 slices)</t>
+  </si>
+  <si>
+    <t>LV Catheter 07 (long-axis 2, 176 slices)</t>
+  </si>
+  <si>
+    <t>Total images</t>
+  </si>
+  <si>
+    <t>Total cath images</t>
   </si>
 </sst>
 </file>
@@ -89,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,61 +121,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,26 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U9"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,117 +443,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="5" t="s">
-        <v>7</v>
+      <c r="U2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="2"/>
       <c r="U3" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>7</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>8</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>9</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>11</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>12</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>13</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <v>14</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>15</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="5">
         <v>16</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="5">
         <v>17</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>53</v>
@@ -656,8 +608,8 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>2</v>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>109</v>
@@ -712,8 +664,8 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <f>C5-$U$3</f>
@@ -785,8 +737,8 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <f>C6+$U$3</f>
@@ -858,18 +810,892 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUM(C6:S6)-SUM(C5:S5)</f>
+        <v>986</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <f>SUM(C8:S8)-SUM(C7:S7)</f>
+        <v>1666</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
         <v>8</v>
       </c>
+      <c r="K14" s="5">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5">
+        <v>12</v>
+      </c>
+      <c r="O14" s="5">
+        <v>13</v>
+      </c>
+      <c r="P14" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>15</v>
+      </c>
+      <c r="R14" s="5">
+        <v>16</v>
+      </c>
+      <c r="S14" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3">
+        <v>63</v>
+      </c>
+      <c r="E15" s="3">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3">
+        <v>68</v>
+      </c>
+      <c r="I15" s="3">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3">
+        <v>66</v>
+      </c>
+      <c r="K15" s="3">
+        <v>64</v>
+      </c>
+      <c r="L15" s="3">
+        <v>64</v>
+      </c>
+      <c r="M15" s="3">
+        <v>65</v>
+      </c>
+      <c r="N15" s="3">
+        <v>61</v>
+      </c>
+      <c r="O15" s="3">
+        <v>60</v>
+      </c>
+      <c r="P15" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>64</v>
+      </c>
+      <c r="R15" s="3">
+        <v>65</v>
+      </c>
+      <c r="S15" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3">
+        <v>81</v>
+      </c>
+      <c r="H16" s="3">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3">
+        <v>82</v>
+      </c>
+      <c r="J16" s="3">
+        <v>81</v>
+      </c>
+      <c r="K16" s="3">
+        <v>81</v>
+      </c>
+      <c r="L16" s="3">
+        <v>81</v>
+      </c>
+      <c r="M16" s="3">
+        <v>81</v>
+      </c>
+      <c r="N16" s="3">
+        <v>80</v>
+      </c>
+      <c r="O16" s="3">
+        <v>80</v>
+      </c>
+      <c r="P16" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>82</v>
+      </c>
+      <c r="R16" s="3">
+        <v>81</v>
+      </c>
+      <c r="S16" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C15-$U$3</f>
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D15-$U$3</f>
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17:S17" si="4">E15-$U$3</f>
+        <v>44</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C16+$U$3</f>
+        <v>102</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D16+$U$3</f>
+        <v>101</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:S18" si="5">E16+$U$3</f>
+        <v>104</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8">
+        <f>SUM(C16:S16)-SUM(C15:S15)</f>
+        <v>300</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8">
+        <f>SUM(C18:S18)-SUM(C17:S17)</f>
+        <v>980</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5">
+        <v>8</v>
+      </c>
+      <c r="K24" s="5">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5">
+        <v>10</v>
+      </c>
+      <c r="M24" s="5">
+        <v>11</v>
+      </c>
+      <c r="N24" s="5">
+        <v>12</v>
+      </c>
+      <c r="O24" s="5">
+        <v>13</v>
+      </c>
+      <c r="P24" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>15</v>
+      </c>
+      <c r="R24" s="5">
+        <v>16</v>
+      </c>
+      <c r="S24" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3">
+        <v>94</v>
+      </c>
+      <c r="G25" s="3">
+        <v>94</v>
+      </c>
+      <c r="H25" s="3">
+        <v>95</v>
+      </c>
+      <c r="I25" s="3">
+        <v>94</v>
+      </c>
+      <c r="J25" s="3">
+        <v>94</v>
+      </c>
+      <c r="K25" s="3">
+        <v>94</v>
+      </c>
+      <c r="L25" s="3">
+        <v>95</v>
+      </c>
+      <c r="M25" s="3">
+        <v>92</v>
+      </c>
+      <c r="N25" s="3">
+        <v>93</v>
+      </c>
+      <c r="O25" s="3">
+        <v>93</v>
+      </c>
+      <c r="P25" s="3">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>93</v>
+      </c>
+      <c r="R25" s="3">
+        <v>95</v>
+      </c>
+      <c r="S25" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>106</v>
+      </c>
+      <c r="D26" s="3">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3">
+        <v>105</v>
+      </c>
+      <c r="F26" s="3">
+        <v>103</v>
+      </c>
+      <c r="G26" s="3">
+        <v>104</v>
+      </c>
+      <c r="H26" s="3">
+        <v>105</v>
+      </c>
+      <c r="I26" s="3">
+        <v>108</v>
+      </c>
+      <c r="J26" s="3">
+        <v>107</v>
+      </c>
+      <c r="K26" s="3">
+        <v>107</v>
+      </c>
+      <c r="L26" s="3">
+        <v>109</v>
+      </c>
+      <c r="M26" s="3">
+        <v>106</v>
+      </c>
+      <c r="N26" s="3">
+        <v>104</v>
+      </c>
+      <c r="O26" s="3">
+        <v>106</v>
+      </c>
+      <c r="P26" s="3">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>109</v>
+      </c>
+      <c r="R26" s="3">
+        <v>107</v>
+      </c>
+      <c r="S26" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <f>C25-$U$3</f>
+        <v>73</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D25-$U$3</f>
+        <v>74</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ref="E27:S27" si="6">E25-$U$3</f>
+        <v>72</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C26+$U$3</f>
+        <v>126</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D26+$U$3</f>
+        <v>127</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:S28" si="7">E26+$U$3</f>
+        <v>125</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8">
+        <f>SUM(C26:S26)-SUM(C25:S25)</f>
+        <v>210</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8">
+        <f>SUM(C28:S28)-SUM(C27:S27)</f>
+        <v>890</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="15">
+    <mergeCell ref="C30:S30"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="C10:S10"/>
+    <mergeCell ref="C19:S19"/>
+    <mergeCell ref="C20:S20"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="C13:S13"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:S22"/>
+    <mergeCell ref="C23:S23"/>
     <mergeCell ref="C2:S2"/>
     <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MLForCatheterDetection/Presentation/LV Catheter 07.xlsx
+++ b/MLForCatheterDetection/Presentation/LV Catheter 07.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="2"/>
       <c r="U3" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -556,55 +556,55 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
         <v>51</v>
       </c>
-      <c r="F5" s="3">
-        <v>53</v>
-      </c>
       <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3">
         <v>51</v>
       </c>
-      <c r="H5" s="3">
-        <v>49</v>
-      </c>
-      <c r="I5" s="3">
-        <v>49</v>
-      </c>
-      <c r="J5" s="3">
-        <v>52</v>
-      </c>
-      <c r="K5" s="3">
-        <v>53</v>
-      </c>
       <c r="L5" s="3">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="3">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O5" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3">
+        <v>46</v>
+      </c>
+      <c r="R5" s="3">
+        <v>48</v>
+      </c>
+      <c r="S5" s="3">
         <v>47</v>
-      </c>
-      <c r="R5" s="3">
-        <v>51</v>
-      </c>
-      <c r="S5" s="3">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
@@ -669,71 +669,71 @@
       </c>
       <c r="C7" s="3">
         <f>C5-$U$3</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3">
         <f>D5-$U$3</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ref="E7:Q7" si="0">E5-$U$3</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" ref="R7:S7" si="1">R5-$U$3</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -742,71 +742,71 @@
       </c>
       <c r="C8" s="3">
         <f>C6+$U$3</f>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3">
         <f>D6+$U$3</f>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ref="E8:Q8" si="2">E6+$U$3</f>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" ref="R8:S8" si="3">R6+$U$3</f>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
       </c>
       <c r="C9" s="8">
         <f>SUM(C6:S6)-SUM(C5:S5)</f>
-        <v>986</v>
+        <v>1037</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -840,7 +840,7 @@
       </c>
       <c r="C10" s="8">
         <f>SUM(C8:S8)-SUM(C7:S7)</f>
-        <v>1666</v>
+        <v>1377</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1081,71 +1081,71 @@
       </c>
       <c r="C17" s="3">
         <f>C15-$U$3</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3">
         <f>D15-$U$3</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ref="E17:S17" si="4">E15-$U$3</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -1154,71 +1154,71 @@
       </c>
       <c r="C18" s="3">
         <f>C16+$U$3</f>
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <f>D16+$U$3</f>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ref="E18:S18" si="5">E16+$U$3</f>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="S18" s="3">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C20" s="8">
         <f>SUM(C18:S18)-SUM(C17:S17)</f>
-        <v>980</v>
+        <v>640</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1489,71 +1489,71 @@
       </c>
       <c r="C27" s="3">
         <f>C25-$U$3</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D27" s="3">
         <f>D25-$U$3</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ref="E27:S27" si="6">E25-$U$3</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" si="6"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="R27" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="S27" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -1562,71 +1562,71 @@
       </c>
       <c r="C28" s="3">
         <f>C26+$U$3</f>
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D28" s="3">
         <f>D26+$U$3</f>
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ref="E28:S28" si="7">E26+$U$3</f>
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="7"/>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="7"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="7"/>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="7"/>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S28" s="3">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C30" s="8">
         <f>SUM(C28:S28)-SUM(C27:S27)</f>
-        <v>890</v>
+        <v>550</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1681,21 +1681,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:S22"/>
+    <mergeCell ref="C23:S23"/>
     <mergeCell ref="C30:S30"/>
     <mergeCell ref="C9:S9"/>
     <mergeCell ref="C10:S10"/>
     <mergeCell ref="C19:S19"/>
     <mergeCell ref="C20:S20"/>
     <mergeCell ref="C29:S29"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:S12"/>
     <mergeCell ref="C13:S13"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:S22"/>
-    <mergeCell ref="C23:S23"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
